--- a/documentation/BackLog.xlsx
+++ b/documentation/BackLog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Desktop\DTM\repo\DarkTimesMississippi\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD61A1B-AF23-40CA-92DA-C2B82F48C357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC558DC-10CB-407C-9890-7164A3F87BB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{A7B45295-4886-4A16-A195-10F19CD96452}"/>
   </bookViews>
@@ -816,7 +816,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1582,7 +1582,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/documentation/BackLog.xlsx
+++ b/documentation/BackLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Desktop\DTM\repo\DarkTimesMississippi\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC558DC-10CB-407C-9890-7164A3F87BB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C54444-5F7D-43E6-AD35-EDFFEA839967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{A7B45295-4886-4A16-A195-10F19CD96452}"/>
   </bookViews>
@@ -309,12 +309,6 @@
     <t>digital dices</t>
   </si>
   <si>
-    <t>As a user, I want to be able to roll two dices in the digital component.</t>
-  </si>
-  <si>
-    <t>As a user, I want to see a 3D animation when I roll the dices.</t>
-  </si>
-  <si>
     <t>gebeurtenissen</t>
   </si>
   <si>
@@ -412,6 +406,12 @@
   </si>
   <si>
     <t>wk0 test</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to roll two dices in the digital component, because I won't need physical dices if I can.</t>
+  </si>
+  <si>
+    <t>As a user, I want to see a 3D animation when I roll the dices, because the current animation is boring.</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1009,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="6"/>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
@@ -1021,7 +1021,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="6"/>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="3"/>
@@ -1229,7 +1229,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1582,7 +1582,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1615,13 +1615,13 @@
         <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1631,7 +1631,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="6"/>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -1653,7 +1653,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="F3">
         <v>16</v>
@@ -1670,12 +1670,12 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="6"/>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
@@ -1692,15 +1692,15 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1717,15 +1717,15 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -1742,12 +1742,12 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="3"/>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F7">
         <v>16</v>
@@ -1755,12 +1755,12 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="6"/>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
         <v>41</v>
@@ -1771,12 +1771,12 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="6"/>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
         <v>41</v>
@@ -1792,7 +1792,7 @@
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
         <v>41</v>
@@ -1803,12 +1803,12 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
         <v>76</v>
@@ -1819,15 +1819,15 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -1835,12 +1835,12 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="3"/>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
         <v>76</v>
@@ -1856,7 +1856,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
         <v>43</v>
@@ -1872,10 +1872,10 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F15">
         <v>8</v>
@@ -1888,23 +1888,23 @@
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
         <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
@@ -1915,15 +1915,15 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F18">
         <v>40</v>

--- a/documentation/BackLog.xlsx
+++ b/documentation/BackLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Desktop\DTM\repo\DarkTimesMississippi\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C54444-5F7D-43E6-AD35-EDFFEA839967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729E5C9A-3F4E-461B-9EE4-1CF682DC2A12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{A7B45295-4886-4A16-A195-10F19CD96452}"/>
   </bookViews>
@@ -312,81 +312,36 @@
     <t>gebeurtenissen</t>
   </si>
   <si>
-    <t>As a user, I want to be able to draw an event card, such that there is a fancy animation displayed when I do.</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to draw an event card, such that the in game events are displayed</t>
-  </si>
-  <si>
-    <t>As a user, I want the program to store a persistent list of events and to read them into the program when I start a game.</t>
-  </si>
-  <si>
     <t>fiches</t>
   </si>
   <si>
-    <t>As a user, I want the program to store the amount of dollars and wheat that are in my posession</t>
-  </si>
-  <si>
     <t>boot data</t>
   </si>
   <si>
     <t>boot</t>
   </si>
   <si>
-    <t>As a user, I want the program to know whether I have a boat or not, and how many wheat is loaded on my boat.</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to enter the names of 2-4 players before I start a game.</t>
-  </si>
-  <si>
     <t>beurt info</t>
   </si>
   <si>
-    <t>As a user, I want the program to display a screen that shows which player is on turn and statistics about the player.</t>
-  </si>
-  <si>
     <t>overzicht</t>
   </si>
   <si>
-    <t>As a user, I want the program to display the names and data of all players in a corner on the turn screen.</t>
-  </si>
-  <si>
-    <t>As a user, I want the GUI to switch to the proper screens automatically.</t>
-  </si>
-  <si>
-    <t>As a user, I want the GUI to communicate my actions to the back-end code.</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to play the game without physical dices or event cards.</t>
-  </si>
-  <si>
     <t>bugfixes</t>
   </si>
   <si>
-    <t>As a user, I want the known bugs to be resolved.</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
-    <t>As a developer, I want the program to have unit tests, so I can identify bugs.</t>
-  </si>
-  <si>
     <t>NVT</t>
   </si>
   <si>
     <t>Custom events</t>
   </si>
   <si>
-    <t>As a user, I want the program to execute the effect of the drawn event.</t>
-  </si>
-  <si>
     <t>game control</t>
   </si>
   <si>
-    <t>As a user, I want the program to be able to execute a series of turns until the game is over.</t>
-  </si>
-  <si>
     <t>Naam</t>
   </si>
   <si>
@@ -412,6 +367,51 @@
   </si>
   <si>
     <t>As a user, I want to see a 3D animation when I roll the dices, because the current animation is boring.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to draw an event card, such that there is a fancy animation displayed when I do, because I don't want to shuffle the cards every time.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to draw an event card, such that the in game events are displayed, because otherwise the feature is useless.</t>
+  </si>
+  <si>
+    <t>As a user, I want the program to store a persistent list of events and to read them into the program when I start a game, because I'm too lazy to re-enter the events whenever I want to play a game.</t>
+  </si>
+  <si>
+    <t>As a user, I want the program to execute the effect of the drawn event, because it saves me effort and it prevents cheating.</t>
+  </si>
+  <si>
+    <t>As a user, I want the program to store the amount of dollars and wheat that are in my posession, so I don't have to mess around with fiches.</t>
+  </si>
+  <si>
+    <t>As a user, I want the program to know whether I have a boat or not, and how many wheat is loaded on my boat, because it supports future features and saves me effort.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to enter the names of 2-4 players before I start a game, so I have a personalized experience and it's easier to remember who's at turn.</t>
+  </si>
+  <si>
+    <t>As a user, I want the program to display a screen that shows which player is on turn and statistics about the player, because I need information from the game to make good decisions.</t>
+  </si>
+  <si>
+    <t>As a user, I want the program to be able to execute a series of turns until the game is over, because it supports the other things I want and makes the digital component more easy to use.</t>
+  </si>
+  <si>
+    <t>As a user, I want the program to display the names and data of all players in a corner on the turn screen, because it gives me extra information that I can base my decisions on and that information is otherwise ommitted by the use of the digital component.</t>
+  </si>
+  <si>
+    <t>As a user, I want the GUI to switch to the proper screens automatically, because not everything fits into a single screen.</t>
+  </si>
+  <si>
+    <t>As a user, I want the GUI to communicate my actions to the back-end code, because I want the program to remember the state of the game.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to play the game without physical dices or event cards, because I want a working and usable digital component.</t>
+  </si>
+  <si>
+    <t>As a user, I want the known bugs to be resolved, because bugs in the program frustrate my experience.</t>
+  </si>
+  <si>
+    <t>As a developer, I want the program to have unit tests, so I can identify bugs in at an early stage.</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1009,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="6"/>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
@@ -1021,7 +1021,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="6"/>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="3"/>
@@ -1582,7 +1582,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1615,13 +1615,13 @@
         <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="I1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="J1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1631,7 +1631,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="6"/>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -1653,7 +1653,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F3">
         <v>16</v>
@@ -1675,7 +1675,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="6"/>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
@@ -1697,10 +1697,10 @@
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1715,17 +1715,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>91</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
-      <c r="D6" t="s">
-        <v>94</v>
+      <c r="D6" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -1755,12 +1755,12 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="6"/>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
         <v>41</v>
@@ -1769,14 +1769,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="6"/>
-      <c r="D9" t="s">
-        <v>99</v>
+      <c r="D9" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="E9" t="s">
         <v>41</v>
@@ -1792,7 +1792,7 @@
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
         <v>41</v>
@@ -1801,14 +1801,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" t="s">
-        <v>102</v>
+      <c r="D11" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="E11" t="s">
         <v>76</v>
@@ -1817,30 +1817,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
-      <c r="D12" t="s">
-        <v>116</v>
+      <c r="D12" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="3"/>
-      <c r="D13" t="s">
-        <v>104</v>
+      <c r="D13" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="E13" t="s">
         <v>76</v>
@@ -1856,7 +1856,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
         <v>43</v>
@@ -1872,10 +1872,10 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" t="s">
         <v>106</v>
-      </c>
-      <c r="E15" t="s">
-        <v>121</v>
       </c>
       <c r="F15">
         <v>8</v>
@@ -1888,23 +1888,23 @@
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
         <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
@@ -1915,15 +1915,15 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F18">
         <v>40</v>

--- a/documentation/BackLog.xlsx
+++ b/documentation/BackLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Desktop\DTM\repo\DarkTimesMississippi\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729E5C9A-3F4E-461B-9EE4-1CF682DC2A12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0088F8-B502-4AD3-9003-FEBCA8390039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{A7B45295-4886-4A16-A195-10F19CD96452}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="119">
   <si>
     <t>Fysieke component</t>
   </si>
@@ -340,27 +340,6 @@
   </si>
   <si>
     <t>game control</t>
-  </si>
-  <si>
-    <t>Naam</t>
-  </si>
-  <si>
-    <t>week 0</t>
-  </si>
-  <si>
-    <t>Alexander &amp; Ariano</t>
-  </si>
-  <si>
-    <t>Sebastian &amp; Todd</t>
-  </si>
-  <si>
-    <t>Michael &amp; Sebastian</t>
-  </si>
-  <si>
-    <t>Michael, Sebastian, Todd</t>
-  </si>
-  <si>
-    <t>wk0 test</t>
   </si>
   <si>
     <t>As a user, I want to be able to roll two dices in the digital component, because I won't need physical dices if I can.</t>
@@ -1579,23 +1558,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B86C2C0-33C7-4F98-9D8E-2C995B1FAA04}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="134.77734375" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="3" max="3" width="143.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1603,329 +1579,213 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
         <v>85</v>
       </c>
-      <c r="H1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="6"/>
-      <c r="D2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2">
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>90</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3">
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3">
-        <v>9</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>91</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="6"/>
-      <c r="D4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4">
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5">
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5">
-        <v>7</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>91</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6">
+      <c r="C6" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6">
         <v>8</v>
       </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>91</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="3"/>
-      <c r="D7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7">
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>92</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="6"/>
-      <c r="D8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8">
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>94</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9">
+      <c r="C9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>87</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10">
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>95</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11">
+      <c r="C11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>101</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12">
+      <c r="C12" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>96</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13">
+      <c r="C13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>86</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14">
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>86</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15">
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>86</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
       <c r="D16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>97</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17">
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>98</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18">
+      <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18">
         <v>40</v>
       </c>
     </row>

--- a/documentation/BackLog.xlsx
+++ b/documentation/BackLog.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Desktop\DTM\repo\DarkTimesMississippi\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0088F8-B502-4AD3-9003-FEBCA8390039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF07DF8B-EB66-4B21-84AB-1D9B66E3DCA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{A7B45295-4886-4A16-A195-10F19CD96452}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{A7B45295-4886-4A16-A195-10F19CD96452}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1 Backlog" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 2 Backlog" sheetId="3" r:id="rId3"/>
     <sheet name="P2 Sprint 1" sheetId="4" r:id="rId4"/>
+    <sheet name="P2 Sprint 2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="133">
   <si>
     <t>Fysieke component</t>
   </si>
@@ -72,18 +73,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>Status:</t>
-  </si>
-  <si>
-    <t>ToDo</t>
-  </si>
-  <si>
-    <t>Doing</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>Bord Foundation</t>
   </si>
   <si>
@@ -391,6 +380,60 @@
   </si>
   <si>
     <t>As a developer, I want the program to have unit tests, so I can identify bugs in at an early stage.</t>
+  </si>
+  <si>
+    <t>Thema</t>
+  </si>
+  <si>
+    <t>As a user, I want the user interface to have an interesting theme that is consistent in all scenes so I am appealed to use the digital component.</t>
+  </si>
+  <si>
+    <t>Path tracking</t>
+  </si>
+  <si>
+    <t>Rule checking</t>
+  </si>
+  <si>
+    <t>event automation</t>
+  </si>
+  <si>
+    <t>As a user, I want the program to remember where I am on the board, so my user experience can be improved by a smarter GUI.</t>
+  </si>
+  <si>
+    <t>As a user, I want the program to know the rules of the game and apply them, so I don't overlook rules and cheating is prevented.</t>
+  </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to change the settings of the game, so I can personalize my user experience and disable certain functions.</t>
+  </si>
+  <si>
+    <t>victory</t>
+  </si>
+  <si>
+    <t>event customization</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to create my own set of events, so I can play with my own set of events.</t>
+  </si>
+  <si>
+    <t>Unit testing</t>
+  </si>
+  <si>
+    <t>User testing</t>
+  </si>
+  <si>
+    <t>As a developer, I want the program to have unit tests, so I can easily identify bugs.</t>
+  </si>
+  <si>
+    <t>As a developer, I want the program to be tested by users, so I can identify overlooked bugs and get feedback on the program.</t>
+  </si>
+  <si>
+    <t>As a user, I want to see a celebration animation when I win the game, because winning is exciting.</t>
+  </si>
+  <si>
+    <t>As a user, I want to see a brief summary of the game when I win, so I can see the stats.</t>
   </si>
 </sst>
 </file>
@@ -466,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -477,6 +520,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -795,7 +840,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,228 +869,216 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="H2" s="8"/>
       <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="6"/>
+      <c r="C3" s="9"/>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="9"/>
       <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="6"/>
+      <c r="C4" s="9"/>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="9"/>
       <c r="K4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="6"/>
-      <c r="F5" t="s">
-        <v>31</v>
+      <c r="C5" s="9"/>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="9"/>
       <c r="K5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="F6" t="s">
-        <v>32</v>
+      <c r="C6" s="9"/>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="6"/>
+      <c r="C7" s="9"/>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="6"/>
+      <c r="C8" s="9"/>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="9"/>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="6"/>
+      <c r="C10" s="9"/>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="4"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="6"/>
+      <c r="C11" s="9"/>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="6"/>
+      <c r="C12" s="9"/>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="9"/>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="6"/>
-      <c r="F14" t="s">
-        <v>100</v>
+      <c r="C14" s="9"/>
+      <c r="F14" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="6"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="6"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="6"/>
+      <c r="C20" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1082,10 +1115,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1098,15 +1131,15 @@
       <c r="C2" s="3"/>
       <c r="D2" s="6"/>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1114,15 +1147,15 @@
       <c r="C3" s="3"/>
       <c r="D3" s="6"/>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1130,15 +1163,15 @@
       <c r="C4" s="3"/>
       <c r="D4" s="6"/>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1146,12 +1179,12 @@
       <c r="C5" s="3"/>
       <c r="D5" s="6"/>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1159,15 +1192,15 @@
       <c r="C6" s="3"/>
       <c r="D6" s="6"/>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1175,15 +1208,15 @@
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -1191,10 +1224,10 @@
       <c r="C8" s="3"/>
       <c r="D8" s="6"/>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1234,27 +1267,27 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1262,27 +1295,27 @@
       <c r="C2" s="3"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G2">
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J2">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1290,16 +1323,16 @@
       <c r="C3" s="3"/>
       <c r="D3" s="6"/>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J3">
         <v>12</v>
@@ -1310,26 +1343,26 @@
     </row>
     <row r="4" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G4">
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -1340,7 +1373,7 @@
     </row>
     <row r="5" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1348,16 +1381,16 @@
       <c r="C5" s="3"/>
       <c r="D5" s="6"/>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J5">
         <v>10</v>
@@ -1368,7 +1401,7 @@
     </row>
     <row r="6" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1376,16 +1409,16 @@
       <c r="C6" s="3"/>
       <c r="D6" s="6"/>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J6">
         <v>10</v>
@@ -1396,7 +1429,7 @@
     </row>
     <row r="7" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1404,16 +1437,16 @@
       <c r="C7" s="3"/>
       <c r="D7" s="6"/>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J7">
         <v>10</v>
@@ -1424,7 +1457,7 @@
     </row>
     <row r="8" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -1432,10 +1465,10 @@
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G8">
         <v>20</v>
@@ -1443,7 +1476,7 @@
     </row>
     <row r="9" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1451,10 +1484,10 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G9">
         <v>45</v>
@@ -1462,7 +1495,7 @@
     </row>
     <row r="10" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -1470,10 +1503,10 @@
       <c r="C10" s="3"/>
       <c r="D10" s="6"/>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1481,7 +1514,7 @@
     </row>
     <row r="11" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -1489,10 +1522,10 @@
       <c r="C11" s="3"/>
       <c r="D11" s="6"/>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1500,15 +1533,15 @@
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -1516,20 +1549,20 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -1537,7 +1570,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -1560,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B86C2C0-33C7-4F98-9D8E-2C995B1FAA04}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1579,19 +1612,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1599,11 +1632,11 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D3">
         <v>16</v>
@@ -1611,11 +1644,11 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -1623,11 +1656,11 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1635,11 +1668,11 @@
     </row>
     <row r="6" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -1647,11 +1680,11 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -1659,11 +1692,11 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1671,11 +1704,11 @@
     </row>
     <row r="9" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1683,11 +1716,11 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1695,11 +1728,11 @@
     </row>
     <row r="11" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1707,11 +1740,11 @@
     </row>
     <row r="12" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1719,11 +1752,11 @@
     </row>
     <row r="13" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1731,11 +1764,11 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -1743,11 +1776,11 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -1755,23 +1788,23 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D17">
         <v>15</v>
@@ -1779,14 +1812,168 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D18">
         <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC8327E-1F24-4A2A-8C51-CD0AB74C5936}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="152.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/BackLog.xlsx
+++ b/documentation/BackLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Desktop\DTM\repo\DarkTimesMississippi\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\Kraken Documents\DarkTimesMississippi\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF07DF8B-EB66-4B21-84AB-1D9B66E3DCA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95862147-B57F-453D-9E1B-AE93B60D51B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{A7B45295-4886-4A16-A195-10F19CD96452}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{A7B45295-4886-4A16-A195-10F19CD96452}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="135">
   <si>
     <t>Fysieke component</t>
   </si>
@@ -434,6 +434,12 @@
   </si>
   <si>
     <t>As a user, I want to see a brief summary of the game when I win, so I can see the stats.</t>
+  </si>
+  <si>
+    <t>Sound Effects</t>
+  </si>
+  <si>
+    <t>As a player, I want the game to play some relaxing music and fitting sound effects, to make the immersion more complete.</t>
   </si>
 </sst>
 </file>
@@ -843,18 +849,18 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" customWidth="1"/>
-    <col min="7" max="8" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="8" width="17.85546875" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,7 +868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -882,7 +888,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -898,7 +904,7 @@
       </c>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -914,7 +920,7 @@
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -930,7 +936,7 @@
       </c>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -942,7 +948,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -954,7 +960,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -966,7 +972,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -978,7 +984,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -990,7 +996,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1002,7 +1008,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1014,7 +1020,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1026,7 +1032,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1038,42 +1044,42 @@
       <c r="G14" s="4"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1094,14 +1100,14 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="124.44140625" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="124.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1121,7 +1127,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1137,7 +1143,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1153,7 +1159,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1169,7 +1175,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1182,7 +1188,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1198,7 +1204,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1244,16 +1250,16 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="5" max="5" width="89.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="89.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1285,7 +1291,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1313,7 +1319,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1341,7 +1347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -1371,7 +1377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1399,7 +1405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1427,7 +1433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1455,7 +1461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1474,7 +1480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1493,7 +1499,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -1512,7 +1518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1531,7 +1537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1547,7 +1553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1568,7 +1574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1578,7 +1584,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G15">
         <f>SUM(G2:G14)</f>
         <v>137</v>
@@ -1597,14 +1603,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="143.77734375" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="143.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1618,7 +1624,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -1630,7 +1636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -1642,7 +1648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -1654,7 +1660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -1666,7 +1672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -1678,7 +1684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -1690,7 +1696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -1702,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -1714,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -1726,7 +1732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -1738,7 +1744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -1750,7 +1756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -1762,7 +1768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -1774,7 +1780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -1786,7 +1792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -1798,7 +1804,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -1810,7 +1816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -1829,20 +1835,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC8327E-1F24-4A2A-8C51-CD0AB74C5936}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="152.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="152.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1856,7 +1862,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -1868,7 +1874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -1880,7 +1886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -1904,7 +1910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -1916,7 +1922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -1928,7 +1934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -1940,7 +1946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -1952,7 +1958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>127</v>
       </c>
@@ -1964,7 +1970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>128</v>
       </c>
@@ -1974,6 +1980,18 @@
       </c>
       <c r="D11">
         <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/BackLog.xlsx
+++ b/documentation/BackLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\Kraken Documents\DarkTimesMississippi\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Desktop\DTM\repo\DarkTimesMississippi\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95862147-B57F-453D-9E1B-AE93B60D51B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CEA3E8-DC2D-4F51-95F2-0E3E1ED22595}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{A7B45295-4886-4A16-A195-10F19CD96452}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{A7B45295-4886-4A16-A195-10F19CD96452}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="133">
   <si>
     <t>Fysieke component</t>
   </si>
@@ -434,12 +434,6 @@
   </si>
   <si>
     <t>As a user, I want to see a brief summary of the game when I win, so I can see the stats.</t>
-  </si>
-  <si>
-    <t>Sound Effects</t>
-  </si>
-  <si>
-    <t>As a player, I want the game to play some relaxing music and fitting sound effects, to make the immersion more complete.</t>
   </si>
 </sst>
 </file>
@@ -543,6 +537,1190 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Burndown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>acual remaining effort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'P2 Sprint 1'!$D$21:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-02A0-46D4-9444-AB26619EFA78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>expected velocity</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'P2 Sprint 1'!$F$21:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>110.57142857142857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.142857142857139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.714285714285708</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.285714285714278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.857142857142847</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.1054273576010019E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-02A0-46D4-9444-AB26619EFA78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1828670703"/>
+        <c:axId val="1829974799"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'P2 Sprint 1'!$F$20:$F$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>18.428571428571427</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>110.57142857142857</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>92.142857142857139</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>73.714285714285708</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>55.285714285714278</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>36.857142857142847</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>18.42857142857142</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-7.1054273576010019E-15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-02A0-46D4-9444-AB26619EFA78}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1828670703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>dagen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1829974799"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1829974799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>effort</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1828670703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2971800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7543800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafiek 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368C7456-1781-41E6-936E-0409C3A9A9CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -849,18 +2027,18 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" customWidth="1"/>
-    <col min="7" max="8" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" customWidth="1"/>
+    <col min="7" max="8" width="17.88671875" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -868,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -888,7 +2066,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -904,7 +2082,7 @@
       </c>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -920,7 +2098,7 @@
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -936,7 +2114,7 @@
       </c>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -948,7 +2126,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -960,7 +2138,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -972,7 +2150,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -984,7 +2162,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -996,7 +2174,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1008,7 +2186,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1020,7 +2198,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1032,7 +2210,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1044,42 +2222,42 @@
       <c r="G14" s="4"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1100,14 +2278,14 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="124.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="124.44140625" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1127,7 +2305,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1143,7 +2321,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1159,7 +2337,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1175,7 +2353,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1188,7 +2366,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1204,7 +2382,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1220,7 +2398,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1250,16 +2428,16 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="89.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="5" max="5" width="89.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1291,7 +2469,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1319,7 +2497,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1347,7 +2525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -1377,7 +2555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1405,7 +2583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1433,7 +2611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1461,7 +2639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1480,7 +2658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1499,7 +2677,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -1518,7 +2696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1537,7 +2715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1553,7 +2731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1574,7 +2752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1584,7 +2762,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G15">
         <f>SUM(G2:G14)</f>
         <v>137</v>
@@ -1597,20 +2775,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B86C2C0-33C7-4F98-9D8E-2C995B1FAA04}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="143.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="143.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1624,7 +2803,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -1636,7 +2815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -1648,7 +2827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -1660,7 +2839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -1672,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -1684,7 +2863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -1696,7 +2875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -1708,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -1720,7 +2899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -1732,7 +2911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -1744,7 +2923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -1756,7 +2935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -1768,7 +2947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -1780,7 +2959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -1792,7 +2971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -1804,7 +2983,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -1816,7 +2995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -1828,27 +3007,130 @@
         <v>40</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <f>SUM(D2:D15,D17,D18)</f>
+        <v>129</v>
+      </c>
+      <c r="F20">
+        <f>SUM(D20/7)</f>
+        <v>18.428571428571427</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <f>SUM(D20-E21)</f>
+        <v>129</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>SUM(D20-F20)</f>
+        <v>110.57142857142857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <f>SUM(D21-E22)</f>
+        <v>129</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>SUM(F21-F20)</f>
+        <v>92.142857142857139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <f>SUM(D22-E23)</f>
+        <v>129</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>SUM(F22-F20)</f>
+        <v>73.714285714285708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <f>SUM(D23-E24)</f>
+        <v>129</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>SUM(F23-F20)</f>
+        <v>55.285714285714278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <f>SUM(D24-E25)</f>
+        <v>129</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>SUM(F24-F20)</f>
+        <v>36.857142857142847</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <f>SUM(D25-E26)</f>
+        <v>129</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>SUM(F25-F20)</f>
+        <v>18.42857142857142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <f>SUM(D26-E27)</f>
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <f>SUM(D4:D8,D10:D12,D2,D15,D17,D18)</f>
+        <v>102</v>
+      </c>
+      <c r="F27">
+        <f>SUM(F26-F20)</f>
+        <v>-7.1054273576010019E-15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC8327E-1F24-4A2A-8C51-CD0AB74C5936}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="152.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="152.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1862,7 +3144,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -1874,7 +3156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -1886,7 +3168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -1898,7 +3180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -1910,7 +3192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -1922,7 +3204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -1934,7 +3216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -1946,7 +3228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -1958,7 +3240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>127</v>
       </c>
@@ -1970,7 +3252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>128</v>
       </c>
@@ -1980,18 +3262,6 @@
       </c>
       <c r="D11">
         <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/BackLog.xlsx
+++ b/documentation/BackLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Desktop\DTM\repo\DarkTimesMississippi\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CEA3E8-DC2D-4F51-95F2-0E3E1ED22595}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C70BE4-F710-452D-AB05-0F8868D34AE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{A7B45295-4886-4A16-A195-10F19CD96452}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{A7B45295-4886-4A16-A195-10F19CD96452}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -610,7 +610,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13815048118985127"/>
+          <c:y val="0.16708333333333336"/>
+          <c:w val="0.83129396325459315"/>
+          <c:h val="0.60106408573928261"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -646,10 +656,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'P2 Sprint 1'!$D$21:$D$27</c:f>
+              <c:f>'P2 Sprint 1'!$D$20:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>129</c:v>
                 </c:pt>
@@ -669,6 +679,9 @@
                   <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
@@ -713,29 +726,32 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'P2 Sprint 1'!$F$21:$F$27</c:f>
+              <c:f>'P2 Sprint 1'!$F$20:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>110.57142857142857</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>92.142857142857139</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>73.714285714285708</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>55.285714285714278</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>36.857142857142847</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>18.42857142857142</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>-7.1054273576010019E-15</c:v>
                 </c:pt>
               </c:numCache>
@@ -795,35 +811,38 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'P2 Sprint 1'!$F$20:$F$27</c15:sqref>
+                          <c15:sqref>'P2 Sprint 1'!$F$19:$F$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="9"/>
                       <c:pt idx="0">
                         <c:v>18.428571428571427</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>129</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
                         <c:v>110.57142857142857</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
                         <c:v>92.142857142857139</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="4">
                         <c:v>73.714285714285708</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>55.285714285714278</c:v>
                       </c:pt>
-                      <c:pt idx="5">
+                      <c:pt idx="6">
                         <c:v>36.857142857142847</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="7">
                         <c:v>18.42857142857142</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="8">
                         <c:v>-7.1054273576010019E-15</c:v>
                       </c:pt>
                     </c:numCache>
@@ -902,6 +921,753 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1829974799"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1829974799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>effort</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1828670703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Burndown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13815048118985127"/>
+          <c:y val="0.16708333333333336"/>
+          <c:w val="0.83129396325459315"/>
+          <c:h val="0.60106408573928261"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>acual remaining effort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'P2 Sprint 2'!$D$14:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EECC-4BA0-9110-F7AF49240D75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>expected velocity</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'P2 Sprint 2'!$F$14:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EECC-4BA0-9110-F7AF49240D75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1828670703"/>
+        <c:axId val="1829974799"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'P2 Sprint 1'!$F$19:$F$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>18.428571428571427</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>129</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>110.57142857142857</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>92.142857142857139</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>73.714285714285708</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>55.285714285714278</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>36.857142857142847</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>18.42857142857142</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-7.1054273576010019E-15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-EECC-4BA0-9110-F7AF49240D75}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1828670703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>dagen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1179,7 +1945,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1707,6 +3016,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86CCFA93-130C-460D-BF39-09C03562EA45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2777,8 +4129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B86C2C0-33C7-4F98-9D8E-2C995B1FAA04}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3007,97 +4359,103 @@
         <v>40</v>
       </c>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <f>SUM(D20/7)</f>
+        <v>18.428571428571427</v>
+      </c>
+    </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D20">
         <f>SUM(D2:D15,D17,D18)</f>
         <v>129</v>
       </c>
       <c r="F20">
-        <f>SUM(D20/7)</f>
-        <v>18.428571428571427</v>
+        <f>D20</f>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D21">
-        <f>SUM(D20-E21)</f>
+        <f t="shared" ref="D21:D27" si="0">SUM(D20-E21)</f>
         <v>129</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <f>SUM(D20-F20)</f>
+        <f>SUM(D20-F19)</f>
         <v>110.57142857142857</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D22">
-        <f>SUM(D21-E22)</f>
+        <f t="shared" si="0"/>
         <v>129</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <f>SUM(F21-F20)</f>
+        <f>SUM(F21-F19)</f>
         <v>92.142857142857139</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D23">
-        <f>SUM(D22-E23)</f>
+        <f t="shared" si="0"/>
         <v>129</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <f>SUM(F22-F20)</f>
+        <f>SUM(F22-F19)</f>
         <v>73.714285714285708</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24">
-        <f>SUM(D23-E24)</f>
+        <f t="shared" si="0"/>
         <v>129</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <f>SUM(F23-F20)</f>
+        <f>SUM(F23-F19)</f>
         <v>55.285714285714278</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D25">
-        <f>SUM(D24-E25)</f>
+        <f t="shared" si="0"/>
         <v>129</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <f>SUM(F24-F20)</f>
+        <f>SUM(F24-F19)</f>
         <v>36.857142857142847</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D26">
-        <f>SUM(D25-E26)</f>
+        <f t="shared" si="0"/>
         <v>129</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <f>SUM(F25-F20)</f>
+        <f>SUM(F25-F19)</f>
         <v>18.42857142857142</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D27">
-        <f>SUM(D26-E27)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="E27">
@@ -3105,7 +4463,7 @@
         <v>102</v>
       </c>
       <c r="F27">
-        <f>SUM(F26-F20)</f>
+        <f>SUM(F26-F19)</f>
         <v>-7.1054273576010019E-15</v>
       </c>
     </row>
@@ -3117,10 +4475,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC8327E-1F24-4A2A-8C51-CD0AB74C5936}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3130,7 +4488,7 @@
     <col min="4" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3144,7 +4502,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -3156,7 +4514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -3168,7 +4526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -3180,7 +4538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -3192,7 +4550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -3204,7 +4562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -3216,7 +4574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -3228,7 +4586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -3240,7 +4598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>127</v>
       </c>
@@ -3252,7 +4610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>128</v>
       </c>
@@ -3264,7 +4622,394 @@
         <v>2</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <f>SUM(D2:D11)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <f>D14/28</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <f>SUM(27, D12)</f>
+        <v>91</v>
+      </c>
+      <c r="F14">
+        <f>D14</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <f>D14-E15</f>
+        <v>91</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>F14-F13</f>
+        <v>87.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <f>D15-E16</f>
+        <v>91</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>F15-F13</f>
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <f>D16-E17</f>
+        <v>91</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>F16-F13</f>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <f>D17-E18</f>
+        <v>91</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f>F17-F13</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <f>D18-E19</f>
+        <v>91</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>F18-F13</f>
+        <v>74.75</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <f t="shared" ref="D20:D42" si="0">D19-E20</f>
+        <v>91</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>F19-F13</f>
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>F20-F13</f>
+        <v>68.25</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>F21-F13</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>F22-F13</f>
+        <v>61.75</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>F23-F13</f>
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>F24-F13</f>
+        <v>55.25</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>F25-F13</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>F26-F13</f>
+        <v>48.75</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>F27-F13</f>
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>F28-F13</f>
+        <v>42.25</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>F29-F13</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f>F30-F13</f>
+        <v>35.75</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>F31-F13</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f>F32-F13</f>
+        <v>29.25</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>F33-F13</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f>F34-F13</f>
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f>F35-F13</f>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f>F36-F13</f>
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>F37-F13</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>F38-F13</f>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>F39-F13</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f>F40-F13</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f>F41-F13</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/BackLog.xlsx
+++ b/documentation/BackLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Desktop\DTM\repo\DarkTimesMississippi\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Werk\Desktop\GitKraken\DarkTimesMississippi\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C70BE4-F710-452D-AB05-0F8868D34AE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323885CB-674B-4025-A721-32EC2274FDC6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{A7B45295-4886-4A16-A195-10F19CD96452}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" activeTab="4" xr2:uid="{A7B45295-4886-4A16-A195-10F19CD96452}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="134">
   <si>
     <t>Fysieke component</t>
   </si>
@@ -304,9 +304,6 @@
     <t>fiches</t>
   </si>
   <si>
-    <t>boot data</t>
-  </si>
-  <si>
     <t>boot</t>
   </si>
   <si>
@@ -394,27 +391,15 @@
     <t>Rule checking</t>
   </si>
   <si>
-    <t>event automation</t>
-  </si>
-  <si>
     <t>As a user, I want the program to remember where I am on the board, so my user experience can be improved by a smarter GUI.</t>
   </si>
   <si>
     <t>As a user, I want the program to know the rules of the game and apply them, so I don't overlook rules and cheating is prevented.</t>
   </si>
   <si>
-    <t>settings</t>
-  </si>
-  <si>
     <t>As a user, I want to be able to change the settings of the game, so I can personalize my user experience and disable certain functions.</t>
   </si>
   <si>
-    <t>victory</t>
-  </si>
-  <si>
-    <t>event customization</t>
-  </si>
-  <si>
     <t>As a user, I want to be able to create my own set of events, so I can play with my own set of events.</t>
   </si>
   <si>
@@ -434,6 +419,24 @@
   </si>
   <si>
     <t>As a user, I want to see a brief summary of the game when I win, so I can see the stats.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Event automation</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Victory</t>
+  </si>
+  <si>
+    <t>Event customization</t>
+  </si>
+  <si>
+    <t>Boot data</t>
   </si>
 </sst>
 </file>
@@ -524,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -542,7 +545,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -604,7 +607,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -917,7 +920,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -955,7 +958,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1829974799"/>
@@ -1037,7 +1040,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1069,7 +1072,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1828670703"/>
@@ -1111,7 +1114,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1148,7 +1151,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1162,7 +1165,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1224,7 +1227,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1276,96 +1279,96 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'P2 Sprint 2'!$D$14:$D$42</c:f>
+              <c:f>'P2 Sprint 2'!$D$15:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>91</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>91</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>91</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>91</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>91</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>91</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>91</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>91</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>91</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>91</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>91</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>91</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>91</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>91</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>91</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>91</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>91</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>91</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>91</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>91</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>91</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1409,96 +1412,96 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'P2 Sprint 2'!$F$14:$F$42</c:f>
+              <c:f>'P2 Sprint 2'!$F$15:$F$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>91</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.75</c:v>
+                  <c:v>61.714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84.5</c:v>
+                  <c:v>59.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.25</c:v>
+                  <c:v>57.142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78</c:v>
+                  <c:v>54.857142857142861</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74.75</c:v>
+                  <c:v>52.571428571428577</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71.5</c:v>
+                  <c:v>50.285714285714292</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68.25</c:v>
+                  <c:v>48.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65</c:v>
+                  <c:v>45.714285714285722</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>61.75</c:v>
+                  <c:v>43.428571428571438</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58.5</c:v>
+                  <c:v>41.142857142857153</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55.25</c:v>
+                  <c:v>38.857142857142868</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52</c:v>
+                  <c:v>36.571428571428584</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48.75</c:v>
+                  <c:v>34.285714285714299</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45.5</c:v>
+                  <c:v>32.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42.25</c:v>
+                  <c:v>29.71428571428573</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>39</c:v>
+                  <c:v>27.428571428571445</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.75</c:v>
+                  <c:v>25.14285714285716</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32.5</c:v>
+                  <c:v>22.857142857142875</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29.25</c:v>
+                  <c:v>20.571428571428591</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26</c:v>
+                  <c:v>18.285714285714306</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.75</c:v>
+                  <c:v>16.000000000000021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.5</c:v>
+                  <c:v>13.714285714285737</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16.25</c:v>
+                  <c:v>11.428571428571452</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13</c:v>
+                  <c:v>9.1428571428571672</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.75</c:v>
+                  <c:v>6.8571428571428816</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.5</c:v>
+                  <c:v>4.571428571428596</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.25</c:v>
+                  <c:v>2.2857142857143105</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>2.4868995751603507E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1663,7 +1666,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1701,7 +1704,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1829974799"/>
@@ -1783,7 +1786,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1815,7 +1818,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1828670703"/>
@@ -1857,7 +1860,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1894,7 +1897,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3037,15 +3040,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>1006929</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10695215</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>56606</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3076,7 +3079,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3375,22 +3378,22 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" customWidth="1"/>
-    <col min="7" max="8" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.69140625" customWidth="1"/>
+    <col min="2" max="2" width="18.53515625" customWidth="1"/>
+    <col min="3" max="3" width="17.765625" customWidth="1"/>
+    <col min="4" max="4" width="17.84375" customWidth="1"/>
+    <col min="6" max="6" width="25.84375" customWidth="1"/>
+    <col min="7" max="8" width="17.84375" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3398,7 +3401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3418,7 +3421,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3434,7 +3437,7 @@
       </c>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3450,7 +3453,7 @@
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -3466,7 +3469,7 @@
       </c>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3478,7 +3481,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3490,7 +3493,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3502,7 +3505,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3514,7 +3517,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3526,7 +3529,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3538,7 +3541,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3550,66 +3553,70 @@
       <c r="G12" s="4"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="9"/>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="9"/>
       <c r="F14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -3626,18 +3633,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EABBF66-F74F-4843-BA3A-19C80D17E439}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="124.44140625" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.765625" customWidth="1"/>
+    <col min="5" max="5" width="124.4609375" customWidth="1"/>
+    <col min="6" max="6" width="26.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -3657,7 +3664,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3673,7 +3680,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3689,7 +3696,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3705,7 +3712,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -3718,7 +3725,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3734,7 +3741,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -3750,7 +3757,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -3780,16 +3787,16 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="5" max="5" width="89.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.765625" customWidth="1"/>
+    <col min="5" max="5" width="89.07421875" customWidth="1"/>
+    <col min="6" max="6" width="17.765625" customWidth="1"/>
+    <col min="10" max="10" width="10.765625" customWidth="1"/>
+    <col min="11" max="11" width="10.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -3821,7 +3828,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="28.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3849,7 +3856,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="28.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -3877,7 +3884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="28.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -3907,7 +3914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="28.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -3935,7 +3942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="28.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -3963,7 +3970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3991,7 +3998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4010,7 +4017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="28.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -4029,7 +4036,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -4048,7 +4055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="28.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -4067,7 +4074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -4083,7 +4090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -4104,7 +4111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -4114,7 +4121,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G15">
         <f>SUM(G2:G14)</f>
         <v>137</v>
@@ -4129,19 +4136,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B86C2C0-33C7-4F98-9D8E-2C995B1FAA04}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="143.77734375" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.765625" customWidth="1"/>
+    <col min="3" max="3" width="143.765625" customWidth="1"/>
+    <col min="4" max="4" width="10.4609375" customWidth="1"/>
+    <col min="6" max="6" width="12.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4155,217 +4162,217 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="28.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>87</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>88</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="28.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>83</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="28.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="28.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>82</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D14">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>82</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D15">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>82</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D18">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F19">
         <f>SUM(D20/7)</f>
         <v>18.428571428571427</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D20">
         <f>SUM(D2:D15,D17,D18)</f>
         <v>129</v>
@@ -4375,7 +4382,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D21">
         <f t="shared" ref="D21:D27" si="0">SUM(D20-E21)</f>
         <v>129</v>
@@ -4388,7 +4395,7 @@
         <v>110.57142857142857</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D22">
         <f t="shared" si="0"/>
         <v>129</v>
@@ -4401,7 +4408,7 @@
         <v>92.142857142857139</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D23">
         <f t="shared" si="0"/>
         <v>129</v>
@@ -4414,7 +4421,7 @@
         <v>73.714285714285708</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D24">
         <f t="shared" si="0"/>
         <v>129</v>
@@ -4427,7 +4434,7 @@
         <v>55.285714285714278</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D25">
         <f t="shared" si="0"/>
         <v>129</v>
@@ -4440,7 +4447,7 @@
         <v>36.857142857142847</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D26">
         <f t="shared" si="0"/>
         <v>129</v>
@@ -4453,7 +4460,7 @@
         <v>18.42857142857142</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D27">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4475,20 +4482,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC8327E-1F24-4A2A-8C51-CD0AB74C5936}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="152.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.53515625" customWidth="1"/>
+    <col min="3" max="3" width="152.53515625" customWidth="1"/>
+    <col min="4" max="4" width="10.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4502,510 +4509,527 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
       <c r="D12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D13">
         <f>SUM(D2:D11)</f>
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F13">
-        <f>D14/28</f>
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D14">
-        <f>SUM(27, D12)</f>
-        <v>91</v>
-      </c>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F14">
-        <f>D14</f>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <f>D15/28</f>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D15">
-        <f>D14-E15</f>
-        <v>91</v>
+        <f>SUM(D13)</f>
+        <v>64</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <f>F14-F13</f>
-        <v>87.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <f>D15</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D16">
         <f>D15-E16</f>
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <f>F15-F13</f>
-        <v>84.5</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+        <f>F15-F14</f>
+        <v>61.714285714285715</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D17">
         <f>D16-E17</f>
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <f>F16-F13</f>
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+        <f>F16-F14</f>
+        <v>59.428571428571431</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D18">
         <f>D17-E18</f>
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <f>F17-F13</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+        <f>F17-F14</f>
+        <v>57.142857142857146</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D19">
         <f>D18-E19</f>
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <f>F18-F13</f>
-        <v>74.75</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+        <f>F18-F14</f>
+        <v>54.857142857142861</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D20">
-        <f t="shared" ref="D20:D42" si="0">D19-E20</f>
-        <v>91</v>
+        <f>D19-E20</f>
+        <v>64</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <f>F19-F13</f>
-        <v>71.5</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+        <f>F19-F14</f>
+        <v>52.571428571428577</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>91</v>
+        <f t="shared" ref="D21:D40" si="0">D20-E21</f>
+        <v>64</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <f>F20-F13</f>
-        <v>68.25</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+        <f>F20-F14</f>
+        <v>50.285714285714292</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <f>F21-F13</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+        <f>F21-F14</f>
+        <v>48.000000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F23">
-        <f>F22-F13</f>
-        <v>61.75</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
+        <f>F22-F14</f>
+        <v>45.714285714285722</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <f>F23-F13</f>
-        <v>58.5</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.3">
+        <f>F23-F14</f>
+        <v>43.428571428571438</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <f>F24-F13</f>
-        <v>55.25</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.3">
+        <f>F24-F14</f>
+        <v>41.142857142857153</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <f>F25-F13</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.3">
+        <f>F25-F14</f>
+        <v>38.857142857142868</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <f>F26-F13</f>
-        <v>48.75</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.3">
+        <f>F26-F14</f>
+        <v>36.571428571428584</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <f>F27-F13</f>
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.3">
+        <f>F27-F14</f>
+        <v>34.285714285714299</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <f>F28-F13</f>
-        <v>42.25</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.3">
+        <f>F28-F14</f>
+        <v>32.000000000000014</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F30">
-        <f>F29-F13</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.3">
+        <f>F29-F14</f>
+        <v>29.71428571428573</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F31">
-        <f>F30-F13</f>
-        <v>35.75</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.3">
+        <f>F30-F14</f>
+        <v>27.428571428571445</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <f>F31-F13</f>
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+        <f>F31-F14</f>
+        <v>25.14285714285716</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <f>F32-F13</f>
-        <v>29.25</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+        <f>F32-F14</f>
+        <v>22.857142857142875</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F34">
-        <f>F33-F13</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
+        <f>F33-F14</f>
+        <v>20.571428571428591</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <f>F34-F13</f>
-        <v>22.75</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
+        <f>F34-F14</f>
+        <v>18.285714285714306</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <f>F35-F13</f>
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
+        <f>F35-F14</f>
+        <v>16.000000000000021</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <f>F36-F13</f>
-        <v>16.25</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.3">
+        <f>F36-F14</f>
+        <v>13.714285714285737</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <f>F37-F13</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.3">
+        <f>F37-F14</f>
+        <v>11.428571428571452</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <f>F38-F13</f>
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.3">
+        <f>F38-F14</f>
+        <v>9.1428571428571672</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <f>F39-F13</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.3">
+        <f>F39-F14</f>
+        <v>6.8571428571428816</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D41">
-        <f t="shared" si="0"/>
-        <v>91</v>
+        <f>D40-E41</f>
+        <v>0</v>
       </c>
       <c r="E41">
+        <v>17</v>
+      </c>
+      <c r="F41">
+        <f>F40-F14</f>
+        <v>4.571428571428596</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D42">
+        <f>D41-E42</f>
         <v>0</v>
       </c>
-      <c r="F41">
-        <f>F40-F13</f>
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="E42">
+      <c r="F42">
+        <f>F41-F14</f>
+        <v>2.2857142857143105</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D43">
+        <f>D42-E43</f>
         <v>0</v>
       </c>
-      <c r="F42">
-        <f>F41-F13</f>
+      <c r="E43">
         <v>0</v>
+      </c>
+      <c r="F43">
+        <f>F42-F14</f>
+        <v>2.4868995751603507E-14</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E44" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/BackLog.xlsx
+++ b/documentation/BackLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Werk\Desktop\GitKraken\DarkTimesMississippi\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Desktop\DTM\repo\DarkTimesMississippi\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323885CB-674B-4025-A721-32EC2274FDC6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A9F574-D1E4-4917-AE49-E05348DC0DFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" activeTab="4" xr2:uid="{A7B45295-4886-4A16-A195-10F19CD96452}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{A7B45295-4886-4A16-A195-10F19CD96452}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="134">
   <si>
     <t>Fysieke component</t>
   </si>
@@ -527,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -545,7 +545,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -607,7 +607,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -920,7 +920,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -958,7 +958,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1829974799"/>
@@ -1040,7 +1040,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1072,7 +1072,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1828670703"/>
@@ -1114,7 +1114,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1151,7 +1151,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1165,7 +1165,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1227,7 +1227,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1666,7 +1666,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1704,7 +1704,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1829974799"/>
@@ -1786,7 +1786,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1818,7 +1818,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1828670703"/>
@@ -1860,7 +1860,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1897,7 +1897,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3079,7 +3079,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3379,21 +3379,21 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.69140625" customWidth="1"/>
-    <col min="2" max="2" width="18.53515625" customWidth="1"/>
-    <col min="3" max="3" width="17.765625" customWidth="1"/>
-    <col min="4" max="4" width="17.84375" customWidth="1"/>
-    <col min="6" max="6" width="25.84375" customWidth="1"/>
-    <col min="7" max="8" width="17.84375" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" customWidth="1"/>
+    <col min="7" max="8" width="17.88671875" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3430,14 +3430,14 @@
       <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="9"/>
       <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3446,14 +3446,14 @@
       <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="9"/>
       <c r="K4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3481,7 +3481,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3490,10 +3490,10 @@
       <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3502,10 +3502,10 @@
       <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3514,10 +3514,10 @@
       <c r="F9" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3526,10 +3526,10 @@
       <c r="F10" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3538,10 +3538,10 @@
       <c r="F11" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3550,10 +3550,10 @@
       <c r="F12" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3562,10 +3562,10 @@
       <c r="F13" t="s">
         <v>133</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -3577,7 +3577,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -3588,35 +3588,35 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -3637,14 +3637,14 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.765625" customWidth="1"/>
-    <col min="5" max="5" width="124.4609375" customWidth="1"/>
-    <col min="6" max="6" width="26.53515625" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="124.44140625" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -3787,16 +3787,16 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.765625" customWidth="1"/>
-    <col min="5" max="5" width="89.07421875" customWidth="1"/>
-    <col min="6" max="6" width="17.765625" customWidth="1"/>
-    <col min="10" max="10" width="10.765625" customWidth="1"/>
-    <col min="11" max="11" width="10.4609375" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="5" max="5" width="89.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -4121,7 +4121,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G15">
         <f>SUM(G2:G14)</f>
         <v>137</v>
@@ -4136,25 +4136,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B86C2C0-33C7-4F98-9D8E-2C995B1FAA04}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.765625" customWidth="1"/>
-    <col min="3" max="3" width="143.765625" customWidth="1"/>
-    <col min="4" max="4" width="10.4609375" customWidth="1"/>
-    <col min="6" max="6" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="143.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B1" s="9"/>
       <c r="C1" t="s">
         <v>80</v>
       </c>
@@ -4162,11 +4160,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="9"/>
       <c r="C2" t="s">
         <v>97</v>
       </c>
@@ -4174,11 +4172,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="9"/>
       <c r="C3" t="s">
         <v>98</v>
       </c>
@@ -4186,11 +4184,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="9"/>
       <c r="C4" t="s">
         <v>99</v>
       </c>
@@ -4198,11 +4196,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="9"/>
       <c r="C5" t="s">
         <v>100</v>
       </c>
@@ -4210,11 +4208,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
         <v>101</v>
       </c>
@@ -4222,11 +4220,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="9"/>
       <c r="C7" t="s">
         <v>102</v>
       </c>
@@ -4234,11 +4232,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="9"/>
       <c r="C8" t="s">
         <v>103</v>
       </c>
@@ -4246,11 +4244,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
         <v>104</v>
       </c>
@@ -4258,11 +4256,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="9"/>
       <c r="C10" t="s">
         <v>105</v>
       </c>
@@ -4270,11 +4268,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="7" t="s">
         <v>106</v>
       </c>
@@ -4282,11 +4280,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="7" t="s">
         <v>107</v>
       </c>
@@ -4294,11 +4292,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="7" t="s">
         <v>108</v>
       </c>
@@ -4306,11 +4304,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="9"/>
       <c r="C14" t="s">
         <v>109</v>
       </c>
@@ -4318,11 +4316,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="9"/>
       <c r="C15" t="s">
         <v>110</v>
       </c>
@@ -4330,11 +4328,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="9"/>
       <c r="C16" t="s">
         <v>111</v>
       </c>
@@ -4342,11 +4340,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="9"/>
       <c r="C17" t="s">
         <v>112</v>
       </c>
@@ -4354,11 +4352,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="9"/>
       <c r="C18" t="s">
         <v>113</v>
       </c>
@@ -4366,13 +4364,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F19">
         <f>SUM(D20/7)</f>
         <v>18.428571428571427</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D20">
         <f>SUM(D2:D15,D17,D18)</f>
         <v>129</v>
@@ -4382,7 +4380,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D21">
         <f t="shared" ref="D21:D27" si="0">SUM(D20-E21)</f>
         <v>129</v>
@@ -4395,7 +4393,7 @@
         <v>110.57142857142857</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D22">
         <f t="shared" si="0"/>
         <v>129</v>
@@ -4408,7 +4406,7 @@
         <v>92.142857142857139</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D23">
         <f t="shared" si="0"/>
         <v>129</v>
@@ -4421,7 +4419,7 @@
         <v>73.714285714285708</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24">
         <f t="shared" si="0"/>
         <v>129</v>
@@ -4434,7 +4432,7 @@
         <v>55.285714285714278</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D25">
         <f t="shared" si="0"/>
         <v>129</v>
@@ -4447,7 +4445,7 @@
         <v>36.857142857142847</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D26">
         <f t="shared" si="0"/>
         <v>129</v>
@@ -4460,7 +4458,7 @@
         <v>18.42857142857142</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D27">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4484,24 +4482,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC8327E-1F24-4A2A-8C51-CD0AB74C5936}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.53515625" customWidth="1"/>
-    <col min="3" max="3" width="152.53515625" customWidth="1"/>
-    <col min="4" max="4" width="10.3046875" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="152.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B1" s="9"/>
       <c r="C1" t="s">
         <v>80</v>
       </c>
@@ -4509,11 +4505,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="9"/>
       <c r="C2" t="s">
         <v>115</v>
       </c>
@@ -4521,11 +4517,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="9"/>
       <c r="C3" t="s">
         <v>118</v>
       </c>
@@ -4533,11 +4529,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="9"/>
       <c r="C4" t="s">
         <v>119</v>
       </c>
@@ -4545,11 +4541,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="9"/>
       <c r="C5" t="s">
         <v>102</v>
       </c>
@@ -4557,11 +4553,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="9"/>
       <c r="C6" t="s">
         <v>120</v>
       </c>
@@ -4569,11 +4565,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="9"/>
       <c r="C7" t="s">
         <v>126</v>
       </c>
@@ -4581,11 +4577,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="9"/>
       <c r="C8" t="s">
         <v>127</v>
       </c>
@@ -4593,11 +4589,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="9"/>
       <c r="C9" t="s">
         <v>121</v>
       </c>
@@ -4605,11 +4601,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="9"/>
       <c r="C10" t="s">
         <v>124</v>
       </c>
@@ -4617,11 +4613,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="9"/>
       <c r="C11" t="s">
         <v>125</v>
       </c>
@@ -4629,11 +4625,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="9"/>
       <c r="C12" t="s">
         <v>98</v>
       </c>
@@ -4641,19 +4637,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13">
         <f>SUM(D2:D11)</f>
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F14">
         <f>D15/28</f>
         <v>2.2857142857142856</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15">
         <f>SUM(D13)</f>
         <v>64</v>
@@ -4666,7 +4662,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16">
         <f>D15-E16</f>
         <v>64</v>
@@ -4679,7 +4675,7 @@
         <v>61.714285714285715</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D17">
         <f>D16-E17</f>
         <v>64</v>
@@ -4692,7 +4688,7 @@
         <v>59.428571428571431</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D18">
         <f>D17-E18</f>
         <v>64</v>
@@ -4705,7 +4701,7 @@
         <v>57.142857142857146</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D19">
         <f>D18-E19</f>
         <v>64</v>
@@ -4718,7 +4714,7 @@
         <v>54.857142857142861</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D20">
         <f>D19-E20</f>
         <v>64</v>
@@ -4731,7 +4727,7 @@
         <v>52.571428571428577</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D21">
         <f t="shared" ref="D21:D40" si="0">D20-E21</f>
         <v>64</v>
@@ -4744,7 +4740,7 @@
         <v>50.285714285714292</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D22">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4757,7 +4753,7 @@
         <v>48.000000000000007</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D23">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4770,7 +4766,7 @@
         <v>45.714285714285722</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D24">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4783,7 +4779,7 @@
         <v>43.428571428571438</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D25">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4796,7 +4792,7 @@
         <v>41.142857142857153</v>
       </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D26">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4809,7 +4805,7 @@
         <v>38.857142857142868</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D27">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4822,7 +4818,7 @@
         <v>36.571428571428584</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D28">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4835,7 +4831,7 @@
         <v>34.285714285714299</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D29">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4848,7 +4844,7 @@
         <v>32.000000000000014</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4861,7 +4857,7 @@
         <v>29.71428571428573</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D31">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4874,7 +4870,7 @@
         <v>27.428571428571445</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D32">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4887,7 +4883,7 @@
         <v>25.14285714285716</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D33">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4900,7 +4896,7 @@
         <v>22.857142857142875</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D34">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4913,7 +4909,7 @@
         <v>20.571428571428591</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D35">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4926,7 +4922,7 @@
         <v>18.285714285714306</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D36">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4939,7 +4935,7 @@
         <v>16.000000000000021</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D37">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4952,7 +4948,7 @@
         <v>13.714285714285737</v>
       </c>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D38">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4965,7 +4961,7 @@
         <v>11.428571428571452</v>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D39">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4978,7 +4974,7 @@
         <v>9.1428571428571672</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D40">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4991,7 +4987,7 @@
         <v>6.8571428571428816</v>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D41">
         <f>D40-E41</f>
         <v>0</v>
@@ -5004,7 +5000,7 @@
         <v>4.571428571428596</v>
       </c>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D42">
         <f>D41-E42</f>
         <v>0</v>
@@ -5014,7 +5010,7 @@
         <v>2.2857142857143105</v>
       </c>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D43">
         <f>D42-E43</f>
         <v>0</v>
@@ -5027,7 +5023,7 @@
         <v>2.4868995751603507E-14</v>
       </c>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
         <v>128</v>
       </c>
